--- a/src/resources/excel_1.xlsx
+++ b/src/resources/excel_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anma0513\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Java\IDEA_Projects\_spring\_bh_projects\documents-parsing\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="27510" windowHeight="12360"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="27510" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
